--- a/biology/Zoologie/Jaera_albifrons/Jaera_albifrons.xlsx
+++ b/biology/Zoologie/Jaera_albifrons/Jaera_albifrons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jaera albifrons[6] ou Jaera (Jaera) albifrons est une espèce de crustacés isopodes de la famille des Janiridae[7],[8],[9]. Il existe une sous-espèce appelée Jaera (Jaera) albifrons  albifrons[7].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jaera albifrons ou Jaera (Jaera) albifrons est une espèce de crustacés isopodes de la famille des Janiridae. Il existe une sous-espèce appelée Jaera (Jaera) albifrons  albifrons.
 L'espèce Jaera albifrons a été décrite par le zoologiste britannique William Elford Leach en 1814. 
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Distribution et biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Côtes de l'Amérique du Nord et d'Europe dont la côte française atlantique[10]. On trouve Jaera albifrons dans des endroits humides en haut de l'estran, il supporte la dessalure.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Côtes de l'Amérique du Nord et d'Europe dont la côte française atlantique. On trouve Jaera albifrons dans des endroits humides en haut de l'estran, il supporte la dessalure.
 </t>
         </is>
       </c>
